--- a/ex4_Scrum_Report_Team_Lion.xlsx
+++ b/ex4_Scrum_Report_Team_Lion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/476ca2fed7ce59c1/שולחן העבודה/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\draws\eclipse-workspace\HAMKA\SW-Lions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B7EE98-0DEF-4F85-8BB2-03B14322AD7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8E60FB-E760-4165-A886-FB61225F49D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -697,7 +697,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1189,7 +1189,7 @@
       <c r="D13" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="26" t="s">
         <v>10</v>
       </c>
